--- a/artifacts/groups.xlsx
+++ b/artifacts/groups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laszlo_Sallo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laszlo_Sallo/Documents/GitHub/ECBS-5146-Different-Shapes-of-Data/artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F9325-5281-5D44-A86F-2AF945E86922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17142D5D-214F-CA48-9972-7CE9A1FA3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{75225AFB-81F2-C54D-9A12-AD243E6957DD}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
